--- a/02-curso-funcoes-com-excel-operacoes-matematicas-e-filtros/material-inicial.xlsx
+++ b/02-curso-funcoes-com-excel-operacoes-matematicas-e-filtros/material-inicial.xlsx
@@ -8,14 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anne Karoline\workspace 2022\00-Projetos-2022\aprendendo-excel\02-curso-funcoes-com-excel-operacoes-matematicas-e-filtros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F566B368-8411-412C-9462-E6660A5DF0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94DF099-CEAB-439A-A036-4AF905463041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C1B61AA5-C757-4C13-B5B2-E36863709022}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C1B61AA5-C757-4C13-B5B2-E36863709022}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos Infantis" sheetId="1" r:id="rId1"/>
-    <sheet name="Gráficos" sheetId="7" r:id="rId2"/>
+    <sheet name="Dados Filtrados" sheetId="8" r:id="rId2"/>
+    <sheet name="Gráficos" sheetId="7" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Produtos Infantis'!$A$2:$F$124</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">'Dados Filtrados'!$A$7:$F$7</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">'Dados Filtrados'!$A$2:$B$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="16">
   <si>
     <t>Tamanho</t>
   </si>
@@ -81,6 +87,9 @@
   </si>
   <si>
     <t>Tênis Infantil Atitas Rosa</t>
+  </si>
+  <si>
+    <t>*Vermelho*</t>
   </si>
 </sst>
 </file>
@@ -360,27 +369,6 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -435,12 +423,33 @@
     <xf numFmtId="164" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="2">
     <dxf>
       <font>
         <b val="0"/>
@@ -454,78 +463,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="4"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -5727,9 +5664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CABC66B-F9D6-46F7-A89B-26F152C71AB5}">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F122"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5742,14 +5679,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -5772,2642 +5709,2642 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="10">
         <v>27</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="11">
         <v>79.8</v>
       </c>
-      <c r="D3" s="18">
-        <f>C3*$C$124</f>
+      <c r="D3" s="11">
+        <f t="shared" ref="D3:D34" si="0">C3*$C$124</f>
         <v>7.98</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="10">
         <v>2</v>
       </c>
-      <c r="F3" s="18">
-        <f>(C3-D3)*E3</f>
+      <c r="F3" s="11">
+        <f t="shared" ref="F3:F34" si="1">(C3-D3)*E3</f>
         <v>143.63999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="10">
         <v>26</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="11">
         <v>79.8</v>
       </c>
-      <c r="D4" s="18">
-        <f>C4*$C$124</f>
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
         <v>7.98</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="10">
         <v>25</v>
       </c>
-      <c r="F4" s="18">
-        <f>(C4-D4)*E4</f>
+      <c r="F4" s="11">
+        <f t="shared" si="1"/>
         <v>1795.4999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="10">
         <v>25</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="11">
         <v>79.8</v>
       </c>
-      <c r="D5" s="18">
-        <f>C5*$C$124</f>
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
         <v>7.98</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="10">
         <v>15</v>
       </c>
-      <c r="F5" s="18">
-        <f>(C5-D5)*E5</f>
+      <c r="F5" s="11">
+        <f t="shared" si="1"/>
         <v>1077.3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="10">
         <v>24</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="11">
         <v>79.8</v>
       </c>
-      <c r="D6" s="18">
-        <f>C6*$C$124</f>
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
         <v>7.98</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="10">
         <v>23</v>
       </c>
-      <c r="F6" s="18">
-        <f>(C6-D6)*E6</f>
+      <c r="F6" s="11">
+        <f t="shared" si="1"/>
         <v>1651.86</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="10">
         <v>23</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="11">
         <v>79.8</v>
       </c>
-      <c r="D7" s="18">
-        <f>C7*$C$124</f>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
         <v>7.98</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="10">
         <v>8</v>
       </c>
-      <c r="F7" s="18">
-        <f>(C7-D7)*E7</f>
+      <c r="F7" s="11">
+        <f t="shared" si="1"/>
         <v>574.55999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="10">
         <v>22</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="11">
         <v>79.8</v>
       </c>
-      <c r="D8" s="18">
-        <f>C8*$C$124</f>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
         <v>7.98</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="10">
         <v>5</v>
       </c>
-      <c r="F8" s="18">
-        <f>(C8-D8)*E8</f>
+      <c r="F8" s="11">
+        <f t="shared" si="1"/>
         <v>359.09999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="10">
         <v>21</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="11">
         <v>79.8</v>
       </c>
-      <c r="D9" s="18">
-        <f>C9*$C$124</f>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
         <v>7.98</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="10">
         <v>12</v>
       </c>
-      <c r="F9" s="18">
-        <f>(C9-D9)*E9</f>
+      <c r="F9" s="11">
+        <f t="shared" si="1"/>
         <v>861.83999999999992</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="10">
         <v>20</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="11">
         <v>79.8</v>
       </c>
-      <c r="D10" s="18">
-        <f>C10*$C$124</f>
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
         <v>7.98</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="10">
         <v>21</v>
       </c>
-      <c r="F10" s="18">
-        <f>(C10-D10)*E10</f>
+      <c r="F10" s="11">
+        <f t="shared" si="1"/>
         <v>1508.2199999999998</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="10">
         <v>19</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="11">
         <v>79.8</v>
       </c>
-      <c r="D11" s="18">
-        <f>C11*$C$124</f>
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
         <v>7.98</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="10">
         <v>3</v>
       </c>
-      <c r="F11" s="18">
-        <f>(C11-D11)*E11</f>
+      <c r="F11" s="11">
+        <f t="shared" si="1"/>
         <v>215.45999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="10">
         <v>18</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="11">
         <v>79.8</v>
       </c>
-      <c r="D12" s="18">
-        <f>C12*$C$124</f>
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
         <v>7.98</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="10">
         <v>0</v>
       </c>
-      <c r="F12" s="18">
-        <f>(C12-D12)*E12</f>
+      <c r="F12" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="10">
         <v>17</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="11">
         <v>79.8</v>
       </c>
-      <c r="D13" s="18">
-        <f>C13*$C$124</f>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
         <v>7.98</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="10">
         <v>15</v>
       </c>
-      <c r="F13" s="18">
-        <f>(C13-D13)*E13</f>
+      <c r="F13" s="11">
+        <f t="shared" si="1"/>
         <v>1077.3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="13">
         <v>36</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="14">
         <v>83.3</v>
       </c>
-      <c r="D14" s="18">
-        <f>C14*$C$124</f>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
         <v>8.33</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="13">
         <v>14</v>
       </c>
-      <c r="F14" s="18">
-        <f>(C14-D14)*E14</f>
+      <c r="F14" s="11">
+        <f t="shared" si="1"/>
         <v>1049.58</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="13">
         <v>35</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="14">
         <v>83.3</v>
       </c>
-      <c r="D15" s="18">
-        <f>C15*$C$124</f>
+      <c r="D15" s="11">
+        <f t="shared" si="0"/>
         <v>8.33</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="13">
         <v>8</v>
       </c>
-      <c r="F15" s="18">
-        <f>(C15-D15)*E15</f>
+      <c r="F15" s="11">
+        <f t="shared" si="1"/>
         <v>599.76</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="13">
         <v>34</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="14">
         <v>83.3</v>
       </c>
-      <c r="D16" s="18">
-        <f>C16*$C$124</f>
+      <c r="D16" s="11">
+        <f t="shared" si="0"/>
         <v>8.33</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="13">
         <v>6</v>
       </c>
-      <c r="F16" s="18">
-        <f>(C16-D16)*E16</f>
+      <c r="F16" s="11">
+        <f t="shared" si="1"/>
         <v>449.82</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="13">
         <v>33</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="14">
         <v>83.3</v>
       </c>
-      <c r="D17" s="18">
-        <f>C17*$C$124</f>
+      <c r="D17" s="11">
+        <f t="shared" si="0"/>
         <v>8.33</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="13">
         <v>0</v>
       </c>
-      <c r="F17" s="18">
-        <f>(C17-D17)*E17</f>
+      <c r="F17" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="13">
         <v>32</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="14">
         <v>83.3</v>
       </c>
-      <c r="D18" s="18">
-        <f>C18*$C$124</f>
+      <c r="D18" s="11">
+        <f t="shared" si="0"/>
         <v>8.33</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="13">
         <v>0</v>
       </c>
-      <c r="F18" s="18">
-        <f>(C18-D18)*E18</f>
+      <c r="F18" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="13">
         <v>31</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="14">
         <v>83.3</v>
       </c>
-      <c r="D19" s="18">
-        <f>C19*$C$124</f>
+      <c r="D19" s="11">
+        <f t="shared" si="0"/>
         <v>8.33</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="13">
         <v>20</v>
       </c>
-      <c r="F19" s="18">
-        <f>(C19-D19)*E19</f>
+      <c r="F19" s="11">
+        <f t="shared" si="1"/>
         <v>1499.4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="13">
         <v>30</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="14">
         <v>83.3</v>
       </c>
-      <c r="D20" s="18">
-        <f>C20*$C$124</f>
+      <c r="D20" s="11">
+        <f t="shared" si="0"/>
         <v>8.33</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="13">
         <v>16</v>
       </c>
-      <c r="F20" s="18">
-        <f>(C20-D20)*E20</f>
+      <c r="F20" s="11">
+        <f t="shared" si="1"/>
         <v>1199.52</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="13">
         <v>29</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="14">
         <v>83.3</v>
       </c>
-      <c r="D21" s="18">
-        <f>C21*$C$124</f>
+      <c r="D21" s="11">
+        <f t="shared" si="0"/>
         <v>8.33</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="13">
         <v>7</v>
       </c>
-      <c r="F21" s="18">
-        <f>(C21-D21)*E21</f>
+      <c r="F21" s="11">
+        <f t="shared" si="1"/>
         <v>524.79</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="13">
         <v>28</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="14">
         <v>83.3</v>
       </c>
-      <c r="D22" s="18">
-        <f>C22*$C$124</f>
+      <c r="D22" s="11">
+        <f t="shared" si="0"/>
         <v>8.33</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="13">
         <v>8</v>
       </c>
-      <c r="F22" s="18">
-        <f>(C22-D22)*E22</f>
+      <c r="F22" s="11">
+        <f t="shared" si="1"/>
         <v>599.76</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="10">
         <v>27</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="11">
         <v>85.5</v>
       </c>
-      <c r="D23" s="18">
-        <f>C23*$C$124</f>
+      <c r="D23" s="11">
+        <f t="shared" si="0"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="10">
         <v>30</v>
       </c>
-      <c r="F23" s="18">
-        <f>(C23-D23)*E23</f>
+      <c r="F23" s="11">
+        <f t="shared" si="1"/>
         <v>2308.5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="10">
         <v>26</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="11">
         <v>85.5</v>
       </c>
-      <c r="D24" s="18">
-        <f>C24*$C$124</f>
+      <c r="D24" s="11">
+        <f t="shared" si="0"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="10">
         <v>8</v>
       </c>
-      <c r="F24" s="18">
-        <f>(C24-D24)*E24</f>
+      <c r="F24" s="11">
+        <f t="shared" si="1"/>
         <v>615.6</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="10">
         <v>25</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="11">
         <v>85.5</v>
       </c>
-      <c r="D25" s="18">
-        <f>C25*$C$124</f>
+      <c r="D25" s="11">
+        <f t="shared" si="0"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="10">
         <v>6</v>
       </c>
-      <c r="F25" s="18">
-        <f>(C25-D25)*E25</f>
+      <c r="F25" s="11">
+        <f t="shared" si="1"/>
         <v>461.70000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="10">
         <v>24</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="11">
         <v>85.5</v>
       </c>
-      <c r="D26" s="18">
-        <f>C26*$C$124</f>
+      <c r="D26" s="11">
+        <f t="shared" si="0"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="10">
         <v>25</v>
       </c>
-      <c r="F26" s="18">
-        <f>(C26-D26)*E26</f>
+      <c r="F26" s="11">
+        <f t="shared" si="1"/>
         <v>1923.75</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="10">
         <v>23</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="11">
         <v>85.5</v>
       </c>
-      <c r="D27" s="18">
-        <f>C27*$C$124</f>
+      <c r="D27" s="11">
+        <f t="shared" si="0"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="10">
         <v>0</v>
       </c>
-      <c r="F27" s="18">
-        <f>(C27-D27)*E27</f>
+      <c r="F27" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="10">
         <v>22</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="11">
         <v>85.5</v>
       </c>
-      <c r="D28" s="18">
-        <f>C28*$C$124</f>
+      <c r="D28" s="11">
+        <f t="shared" si="0"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="10">
         <v>5</v>
       </c>
-      <c r="F28" s="18">
-        <f>(C28-D28)*E28</f>
+      <c r="F28" s="11">
+        <f t="shared" si="1"/>
         <v>384.75</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="10">
         <v>21</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="11">
         <v>85.5</v>
       </c>
-      <c r="D29" s="18">
-        <f>C29*$C$124</f>
+      <c r="D29" s="11">
+        <f t="shared" si="0"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="10">
         <v>19</v>
       </c>
-      <c r="F29" s="18">
-        <f>(C29-D29)*E29</f>
+      <c r="F29" s="11">
+        <f t="shared" si="1"/>
         <v>1462.05</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="10">
         <v>20</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="11">
         <v>85.5</v>
       </c>
-      <c r="D30" s="18">
-        <f>C30*$C$124</f>
+      <c r="D30" s="11">
+        <f t="shared" si="0"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="10">
         <v>18</v>
       </c>
-      <c r="F30" s="18">
-        <f>(C30-D30)*E30</f>
+      <c r="F30" s="11">
+        <f t="shared" si="1"/>
         <v>1385.1000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="10">
         <v>19</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="11">
         <v>85.5</v>
       </c>
-      <c r="D31" s="18">
-        <f>C31*$C$124</f>
+      <c r="D31" s="11">
+        <f t="shared" si="0"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="10">
         <v>16</v>
       </c>
-      <c r="F31" s="18">
-        <f>(C31-D31)*E31</f>
+      <c r="F31" s="11">
+        <f t="shared" si="1"/>
         <v>1231.2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="10">
         <v>18</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="11">
         <v>85.5</v>
       </c>
-      <c r="D32" s="18">
-        <f>C32*$C$124</f>
+      <c r="D32" s="11">
+        <f t="shared" si="0"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="10">
         <v>5</v>
       </c>
-      <c r="F32" s="18">
-        <f>(C32-D32)*E32</f>
+      <c r="F32" s="11">
+        <f t="shared" si="1"/>
         <v>384.75</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="10">
         <v>17</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="11">
         <v>85.5</v>
       </c>
-      <c r="D33" s="18">
-        <f>C33*$C$124</f>
+      <c r="D33" s="11">
+        <f t="shared" si="0"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="10">
         <v>2</v>
       </c>
-      <c r="F33" s="18">
-        <f>(C33-D33)*E33</f>
+      <c r="F33" s="11">
+        <f t="shared" si="1"/>
         <v>153.9</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="13">
         <v>36</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="14">
         <v>89.9</v>
       </c>
-      <c r="D34" s="18">
-        <f>C34*$C$124</f>
+      <c r="D34" s="11">
+        <f t="shared" si="0"/>
         <v>8.99</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="13">
         <v>0</v>
       </c>
-      <c r="F34" s="18">
-        <f>(C34-D34)*E34</f>
+      <c r="F34" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="13">
         <v>35</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="14">
         <v>89.9</v>
       </c>
-      <c r="D35" s="18">
-        <f>C35*$C$124</f>
+      <c r="D35" s="11">
+        <f t="shared" ref="D35:D66" si="2">C35*$C$124</f>
         <v>8.99</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="13">
         <v>2</v>
       </c>
-      <c r="F35" s="18">
-        <f>(C35-D35)*E35</f>
+      <c r="F35" s="11">
+        <f t="shared" ref="F35:F66" si="3">(C35-D35)*E35</f>
         <v>161.82000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="13">
         <v>34</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="14">
         <v>89.9</v>
       </c>
-      <c r="D36" s="18">
-        <f>C36*$C$124</f>
+      <c r="D36" s="11">
+        <f t="shared" si="2"/>
         <v>8.99</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="13">
         <v>15</v>
       </c>
-      <c r="F36" s="18">
-        <f>(C36-D36)*E36</f>
+      <c r="F36" s="11">
+        <f t="shared" si="3"/>
         <v>1213.6500000000001</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="13">
         <v>33</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="14">
         <v>89.9</v>
       </c>
-      <c r="D37" s="18">
-        <f>C37*$C$124</f>
+      <c r="D37" s="11">
+        <f t="shared" si="2"/>
         <v>8.99</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="13">
         <v>4</v>
       </c>
-      <c r="F37" s="18">
-        <f>(C37-D37)*E37</f>
+      <c r="F37" s="11">
+        <f t="shared" si="3"/>
         <v>323.64000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="13">
         <v>32</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="14">
         <v>89.9</v>
       </c>
-      <c r="D38" s="18">
-        <f>C38*$C$124</f>
+      <c r="D38" s="11">
+        <f t="shared" si="2"/>
         <v>8.99</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="13">
         <v>8</v>
       </c>
-      <c r="F38" s="18">
-        <f>(C38-D38)*E38</f>
+      <c r="F38" s="11">
+        <f t="shared" si="3"/>
         <v>647.28000000000009</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="13">
         <v>31</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="14">
         <v>89.9</v>
       </c>
-      <c r="D39" s="18">
-        <f>C39*$C$124</f>
+      <c r="D39" s="11">
+        <f t="shared" si="2"/>
         <v>8.99</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39" s="13">
         <v>15</v>
       </c>
-      <c r="F39" s="18">
-        <f>(C39-D39)*E39</f>
+      <c r="F39" s="11">
+        <f t="shared" si="3"/>
         <v>1213.6500000000001</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="13">
         <v>30</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="14">
         <v>89.9</v>
       </c>
-      <c r="D40" s="18">
-        <f>C40*$C$124</f>
+      <c r="D40" s="11">
+        <f t="shared" si="2"/>
         <v>8.99</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="13">
         <v>6</v>
       </c>
-      <c r="F40" s="18">
-        <f>(C40-D40)*E40</f>
+      <c r="F40" s="11">
+        <f t="shared" si="3"/>
         <v>485.46000000000004</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B41" s="13">
         <v>29</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="14">
         <v>89.9</v>
       </c>
-      <c r="D41" s="18">
-        <f>C41*$C$124</f>
+      <c r="D41" s="11">
+        <f t="shared" si="2"/>
         <v>8.99</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E41" s="13">
         <v>8</v>
       </c>
-      <c r="F41" s="18">
-        <f>(C41-D41)*E41</f>
+      <c r="F41" s="11">
+        <f t="shared" si="3"/>
         <v>647.28000000000009</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="13">
         <v>28</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="14">
         <v>89.9</v>
       </c>
-      <c r="D42" s="18">
-        <f>C42*$C$124</f>
+      <c r="D42" s="11">
+        <f t="shared" si="2"/>
         <v>8.99</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="13">
         <v>5</v>
       </c>
-      <c r="F42" s="18">
-        <f>(C42-D42)*E42</f>
+      <c r="F42" s="11">
+        <f t="shared" si="3"/>
         <v>404.55000000000007</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="29">
+      <c r="B43" s="22">
         <v>27</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C43" s="23">
         <v>79.8</v>
       </c>
-      <c r="D43" s="30">
-        <f>C43*$C$124</f>
+      <c r="D43" s="23">
+        <f t="shared" si="2"/>
         <v>7.98</v>
       </c>
-      <c r="E43" s="29">
+      <c r="E43" s="22">
         <v>18</v>
       </c>
-      <c r="F43" s="30">
-        <f>(C43-D43)*E43</f>
+      <c r="F43" s="23">
+        <f t="shared" si="3"/>
         <v>1292.7599999999998</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="29">
+      <c r="B44" s="22">
         <v>26</v>
       </c>
-      <c r="C44" s="30">
+      <c r="C44" s="23">
         <v>79.8</v>
       </c>
-      <c r="D44" s="30">
-        <f>C44*$C$124</f>
+      <c r="D44" s="23">
+        <f t="shared" si="2"/>
         <v>7.98</v>
       </c>
-      <c r="E44" s="29">
+      <c r="E44" s="22">
         <v>15</v>
       </c>
-      <c r="F44" s="30">
-        <f>(C44-D44)*E44</f>
+      <c r="F44" s="23">
+        <f t="shared" si="3"/>
         <v>1077.3</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="29">
+      <c r="B45" s="22">
         <v>25</v>
       </c>
-      <c r="C45" s="30">
+      <c r="C45" s="23">
         <v>79.8</v>
       </c>
-      <c r="D45" s="30">
-        <f>C45*$C$124</f>
+      <c r="D45" s="23">
+        <f t="shared" si="2"/>
         <v>7.98</v>
       </c>
-      <c r="E45" s="29">
+      <c r="E45" s="22">
         <v>9</v>
       </c>
-      <c r="F45" s="30">
-        <f>(C45-D45)*E45</f>
+      <c r="F45" s="23">
+        <f t="shared" si="3"/>
         <v>646.37999999999988</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="29">
+      <c r="B46" s="22">
         <v>24</v>
       </c>
-      <c r="C46" s="30">
+      <c r="C46" s="23">
         <v>79.8</v>
       </c>
-      <c r="D46" s="30">
-        <f>C46*$C$124</f>
+      <c r="D46" s="23">
+        <f t="shared" si="2"/>
         <v>7.98</v>
       </c>
-      <c r="E46" s="29">
+      <c r="E46" s="22">
         <v>8</v>
       </c>
-      <c r="F46" s="30">
-        <f>(C46-D46)*E46</f>
+      <c r="F46" s="23">
+        <f t="shared" si="3"/>
         <v>574.55999999999995</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="29">
+      <c r="B47" s="22">
         <v>23</v>
       </c>
-      <c r="C47" s="30">
+      <c r="C47" s="23">
         <v>79.8</v>
       </c>
-      <c r="D47" s="30">
-        <f>C47*$C$124</f>
+      <c r="D47" s="23">
+        <f t="shared" si="2"/>
         <v>7.98</v>
       </c>
-      <c r="E47" s="29">
+      <c r="E47" s="22">
         <v>6</v>
       </c>
-      <c r="F47" s="30">
-        <f>(C47-D47)*E47</f>
+      <c r="F47" s="23">
+        <f t="shared" si="3"/>
         <v>430.91999999999996</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="29">
+      <c r="B48" s="22">
         <v>22</v>
       </c>
-      <c r="C48" s="30">
+      <c r="C48" s="23">
         <v>79.8</v>
       </c>
-      <c r="D48" s="30">
-        <f>C48*$C$124</f>
+      <c r="D48" s="23">
+        <f t="shared" si="2"/>
         <v>7.98</v>
       </c>
-      <c r="E48" s="29">
+      <c r="E48" s="22">
         <v>0</v>
       </c>
-      <c r="F48" s="30">
-        <f>(C48-D48)*E48</f>
+      <c r="F48" s="23">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="29">
+      <c r="B49" s="22">
         <v>21</v>
       </c>
-      <c r="C49" s="30">
+      <c r="C49" s="23">
         <v>79.8</v>
       </c>
-      <c r="D49" s="30">
-        <f>C49*$C$124</f>
+      <c r="D49" s="23">
+        <f t="shared" si="2"/>
         <v>7.98</v>
       </c>
-      <c r="E49" s="29">
+      <c r="E49" s="22">
         <v>0</v>
       </c>
-      <c r="F49" s="30">
-        <f>(C49-D49)*E49</f>
+      <c r="F49" s="23">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="29">
+      <c r="B50" s="22">
         <v>20</v>
       </c>
-      <c r="C50" s="30">
+      <c r="C50" s="23">
         <v>79.8</v>
       </c>
-      <c r="D50" s="30">
-        <f>C50*$C$124</f>
+      <c r="D50" s="23">
+        <f t="shared" si="2"/>
         <v>7.98</v>
       </c>
-      <c r="E50" s="29">
+      <c r="E50" s="22">
         <v>1</v>
       </c>
-      <c r="F50" s="30">
-        <f>(C50-D50)*E50</f>
+      <c r="F50" s="23">
+        <f t="shared" si="3"/>
         <v>71.819999999999993</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="29">
+      <c r="B51" s="22">
         <v>19</v>
       </c>
-      <c r="C51" s="30">
+      <c r="C51" s="23">
         <v>79.8</v>
       </c>
-      <c r="D51" s="30">
-        <f>C51*$C$124</f>
+      <c r="D51" s="23">
+        <f t="shared" si="2"/>
         <v>7.98</v>
       </c>
-      <c r="E51" s="29">
+      <c r="E51" s="22">
         <v>2</v>
       </c>
-      <c r="F51" s="30">
-        <f>(C51-D51)*E51</f>
+      <c r="F51" s="23">
+        <f t="shared" si="3"/>
         <v>143.63999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="29">
+      <c r="B52" s="22">
         <v>18</v>
       </c>
-      <c r="C52" s="30">
+      <c r="C52" s="23">
         <v>79.8</v>
       </c>
-      <c r="D52" s="30">
-        <f>C52*$C$124</f>
+      <c r="D52" s="23">
+        <f t="shared" si="2"/>
         <v>7.98</v>
       </c>
-      <c r="E52" s="29">
+      <c r="E52" s="22">
         <v>15</v>
       </c>
-      <c r="F52" s="30">
-        <f>(C52-D52)*E52</f>
+      <c r="F52" s="23">
+        <f t="shared" si="3"/>
         <v>1077.3</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="29">
+      <c r="B53" s="22">
         <v>17</v>
       </c>
-      <c r="C53" s="30">
+      <c r="C53" s="23">
         <v>79.8</v>
       </c>
-      <c r="D53" s="30">
-        <f>C53*$C$124</f>
+      <c r="D53" s="23">
+        <f t="shared" si="2"/>
         <v>7.98</v>
       </c>
-      <c r="E53" s="29">
+      <c r="E53" s="22">
         <v>17</v>
       </c>
-      <c r="F53" s="30">
-        <f>(C53-D53)*E53</f>
+      <c r="F53" s="23">
+        <f t="shared" si="3"/>
         <v>1220.9399999999998</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="32">
+      <c r="B54" s="25">
         <v>36</v>
       </c>
-      <c r="C54" s="33">
+      <c r="C54" s="26">
         <v>83.3</v>
       </c>
-      <c r="D54" s="30">
-        <f>C54*$C$124</f>
+      <c r="D54" s="23">
+        <f t="shared" si="2"/>
         <v>8.33</v>
       </c>
-      <c r="E54" s="32">
+      <c r="E54" s="25">
         <v>5</v>
       </c>
-      <c r="F54" s="30">
-        <f>(C54-D54)*E54</f>
+      <c r="F54" s="23">
+        <f t="shared" si="3"/>
         <v>374.85</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="32">
+      <c r="B55" s="25">
         <v>35</v>
       </c>
-      <c r="C55" s="33">
+      <c r="C55" s="26">
         <v>83.3</v>
       </c>
-      <c r="D55" s="30">
-        <f>C55*$C$124</f>
+      <c r="D55" s="23">
+        <f t="shared" si="2"/>
         <v>8.33</v>
       </c>
-      <c r="E55" s="32">
+      <c r="E55" s="25">
         <v>26</v>
       </c>
-      <c r="F55" s="30">
-        <f>(C55-D55)*E55</f>
+      <c r="F55" s="23">
+        <f t="shared" si="3"/>
         <v>1949.22</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="32">
+      <c r="B56" s="25">
         <v>34</v>
       </c>
-      <c r="C56" s="33">
+      <c r="C56" s="26">
         <v>83.3</v>
       </c>
-      <c r="D56" s="30">
-        <f>C56*$C$124</f>
+      <c r="D56" s="23">
+        <f t="shared" si="2"/>
         <v>8.33</v>
       </c>
-      <c r="E56" s="32">
+      <c r="E56" s="25">
         <v>19</v>
       </c>
-      <c r="F56" s="30">
-        <f>(C56-D56)*E56</f>
+      <c r="F56" s="23">
+        <f t="shared" si="3"/>
         <v>1424.43</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="32">
+      <c r="B57" s="25">
         <v>33</v>
       </c>
-      <c r="C57" s="33">
+      <c r="C57" s="26">
         <v>83.3</v>
       </c>
-      <c r="D57" s="30">
-        <f>C57*$C$124</f>
+      <c r="D57" s="23">
+        <f t="shared" si="2"/>
         <v>8.33</v>
       </c>
-      <c r="E57" s="32">
+      <c r="E57" s="25">
         <v>5</v>
       </c>
-      <c r="F57" s="30">
-        <f>(C57-D57)*E57</f>
+      <c r="F57" s="23">
+        <f t="shared" si="3"/>
         <v>374.85</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="32">
+      <c r="B58" s="25">
         <v>32</v>
       </c>
-      <c r="C58" s="33">
+      <c r="C58" s="26">
         <v>83.3</v>
       </c>
-      <c r="D58" s="30">
-        <f>C58*$C$124</f>
+      <c r="D58" s="23">
+        <f t="shared" si="2"/>
         <v>8.33</v>
       </c>
-      <c r="E58" s="32">
+      <c r="E58" s="25">
         <v>0</v>
       </c>
-      <c r="F58" s="30">
-        <f>(C58-D58)*E58</f>
+      <c r="F58" s="23">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="32">
+      <c r="B59" s="25">
         <v>31</v>
       </c>
-      <c r="C59" s="33">
+      <c r="C59" s="26">
         <v>83.3</v>
       </c>
-      <c r="D59" s="30">
-        <f>C59*$C$124</f>
+      <c r="D59" s="23">
+        <f t="shared" si="2"/>
         <v>8.33</v>
       </c>
-      <c r="E59" s="32">
+      <c r="E59" s="25">
         <v>6</v>
       </c>
-      <c r="F59" s="30">
-        <f>(C59-D59)*E59</f>
+      <c r="F59" s="23">
+        <f t="shared" si="3"/>
         <v>449.82</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="32">
+      <c r="B60" s="25">
         <v>30</v>
       </c>
-      <c r="C60" s="33">
+      <c r="C60" s="26">
         <v>83.3</v>
       </c>
-      <c r="D60" s="30">
-        <f>C60*$C$124</f>
+      <c r="D60" s="23">
+        <f t="shared" si="2"/>
         <v>8.33</v>
       </c>
-      <c r="E60" s="32">
+      <c r="E60" s="25">
         <v>3</v>
       </c>
-      <c r="F60" s="30">
-        <f>(C60-D60)*E60</f>
+      <c r="F60" s="23">
+        <f t="shared" si="3"/>
         <v>224.91</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="32">
+      <c r="B61" s="25">
         <v>29</v>
       </c>
-      <c r="C61" s="33">
+      <c r="C61" s="26">
         <v>83.3</v>
       </c>
-      <c r="D61" s="30">
-        <f>C61*$C$124</f>
+      <c r="D61" s="23">
+        <f t="shared" si="2"/>
         <v>8.33</v>
       </c>
-      <c r="E61" s="32">
+      <c r="E61" s="25">
         <v>2</v>
       </c>
-      <c r="F61" s="30">
-        <f>(C61-D61)*E61</f>
+      <c r="F61" s="23">
+        <f t="shared" si="3"/>
         <v>149.94</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="32">
+      <c r="B62" s="25">
         <v>28</v>
       </c>
-      <c r="C62" s="33">
+      <c r="C62" s="26">
         <v>83.3</v>
       </c>
-      <c r="D62" s="30">
-        <f>C62*$C$124</f>
+      <c r="D62" s="23">
+        <f t="shared" si="2"/>
         <v>8.33</v>
       </c>
-      <c r="E62" s="32">
+      <c r="E62" s="25">
         <v>18</v>
       </c>
-      <c r="F62" s="30">
-        <f>(C62-D62)*E62</f>
+      <c r="F62" s="23">
+        <f t="shared" si="3"/>
         <v>1349.46</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="29">
+      <c r="B63" s="22">
         <v>27</v>
       </c>
-      <c r="C63" s="30">
+      <c r="C63" s="23">
         <v>85.5</v>
       </c>
-      <c r="D63" s="30">
-        <f>C63*$C$124</f>
+      <c r="D63" s="23">
+        <f t="shared" si="2"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E63" s="29">
+      <c r="E63" s="22">
         <v>26</v>
       </c>
-      <c r="F63" s="30">
-        <f>(C63-D63)*E63</f>
+      <c r="F63" s="23">
+        <f t="shared" si="3"/>
         <v>2000.7</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="29">
+      <c r="B64" s="22">
         <v>26</v>
       </c>
-      <c r="C64" s="30">
+      <c r="C64" s="23">
         <v>85.5</v>
       </c>
-      <c r="D64" s="30">
-        <f>C64*$C$124</f>
+      <c r="D64" s="23">
+        <f t="shared" si="2"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E64" s="29">
+      <c r="E64" s="22">
         <v>25</v>
       </c>
-      <c r="F64" s="30">
-        <f>(C64-D64)*E64</f>
+      <c r="F64" s="23">
+        <f t="shared" si="3"/>
         <v>1923.75</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="29">
+      <c r="B65" s="22">
         <v>25</v>
       </c>
-      <c r="C65" s="30">
+      <c r="C65" s="23">
         <v>85.5</v>
       </c>
-      <c r="D65" s="30">
-        <f>C65*$C$124</f>
+      <c r="D65" s="23">
+        <f t="shared" si="2"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E65" s="29">
+      <c r="E65" s="22">
         <v>19</v>
       </c>
-      <c r="F65" s="30">
-        <f>(C65-D65)*E65</f>
+      <c r="F65" s="23">
+        <f t="shared" si="3"/>
         <v>1462.05</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="29">
+      <c r="B66" s="22">
         <v>24</v>
       </c>
-      <c r="C66" s="30">
+      <c r="C66" s="23">
         <v>85.5</v>
       </c>
-      <c r="D66" s="30">
-        <f>C66*$C$124</f>
+      <c r="D66" s="23">
+        <f t="shared" si="2"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E66" s="29">
+      <c r="E66" s="22">
         <v>16</v>
       </c>
-      <c r="F66" s="30">
-        <f>(C66-D66)*E66</f>
+      <c r="F66" s="23">
+        <f t="shared" si="3"/>
         <v>1231.2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="29">
+      <c r="B67" s="22">
         <v>23</v>
       </c>
-      <c r="C67" s="30">
+      <c r="C67" s="23">
         <v>85.5</v>
       </c>
-      <c r="D67" s="30">
-        <f>C67*$C$124</f>
+      <c r="D67" s="23">
+        <f t="shared" ref="D67:D98" si="4">C67*$C$124</f>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E67" s="29">
+      <c r="E67" s="22">
         <v>5</v>
       </c>
-      <c r="F67" s="30">
-        <f>(C67-D67)*E67</f>
+      <c r="F67" s="23">
+        <f t="shared" ref="F67:F98" si="5">(C67-D67)*E67</f>
         <v>384.75</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="29">
+      <c r="B68" s="22">
         <v>22</v>
       </c>
-      <c r="C68" s="30">
+      <c r="C68" s="23">
         <v>85.5</v>
       </c>
-      <c r="D68" s="30">
-        <f>C68*$C$124</f>
+      <c r="D68" s="23">
+        <f t="shared" si="4"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E68" s="29">
+      <c r="E68" s="22">
         <v>0</v>
       </c>
-      <c r="F68" s="30">
-        <f>(C68-D68)*E68</f>
+      <c r="F68" s="23">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="28" t="s">
+      <c r="A69" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="29">
+      <c r="B69" s="22">
         <v>21</v>
       </c>
-      <c r="C69" s="30">
+      <c r="C69" s="23">
         <v>85.5</v>
       </c>
-      <c r="D69" s="30">
-        <f>C69*$C$124</f>
+      <c r="D69" s="23">
+        <f t="shared" si="4"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E69" s="29">
+      <c r="E69" s="22">
         <v>19</v>
       </c>
-      <c r="F69" s="30">
-        <f>(C69-D69)*E69</f>
+      <c r="F69" s="23">
+        <f t="shared" si="5"/>
         <v>1462.05</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="29">
+      <c r="B70" s="22">
         <v>20</v>
       </c>
-      <c r="C70" s="30">
+      <c r="C70" s="23">
         <v>85.5</v>
       </c>
-      <c r="D70" s="30">
-        <f>C70*$C$124</f>
+      <c r="D70" s="23">
+        <f t="shared" si="4"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E70" s="29">
+      <c r="E70" s="22">
         <v>16</v>
       </c>
-      <c r="F70" s="30">
-        <f>(C70-D70)*E70</f>
+      <c r="F70" s="23">
+        <f t="shared" si="5"/>
         <v>1231.2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="29">
+      <c r="B71" s="22">
         <v>19</v>
       </c>
-      <c r="C71" s="30">
+      <c r="C71" s="23">
         <v>85.5</v>
       </c>
-      <c r="D71" s="30">
-        <f>C71*$C$124</f>
+      <c r="D71" s="23">
+        <f t="shared" si="4"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E71" s="29">
+      <c r="E71" s="22">
         <v>25</v>
       </c>
-      <c r="F71" s="30">
-        <f>(C71-D71)*E71</f>
+      <c r="F71" s="23">
+        <f t="shared" si="5"/>
         <v>1923.75</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="29">
+      <c r="B72" s="22">
         <v>18</v>
       </c>
-      <c r="C72" s="30">
+      <c r="C72" s="23">
         <v>85.5</v>
       </c>
-      <c r="D72" s="30">
-        <f>C72*$C$124</f>
+      <c r="D72" s="23">
+        <f t="shared" si="4"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E72" s="29">
+      <c r="E72" s="22">
         <v>15</v>
       </c>
-      <c r="F72" s="30">
-        <f>(C72-D72)*E72</f>
+      <c r="F72" s="23">
+        <f t="shared" si="5"/>
         <v>1154.25</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="29">
+      <c r="B73" s="22">
         <v>17</v>
       </c>
-      <c r="C73" s="30">
+      <c r="C73" s="23">
         <v>85.5</v>
       </c>
-      <c r="D73" s="30">
-        <f>C73*$C$124</f>
+      <c r="D73" s="23">
+        <f t="shared" si="4"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E73" s="29">
+      <c r="E73" s="22">
         <v>6</v>
       </c>
-      <c r="F73" s="30">
-        <f>(C73-D73)*E73</f>
+      <c r="F73" s="23">
+        <f t="shared" si="5"/>
         <v>461.70000000000005</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="32">
+      <c r="B74" s="25">
         <v>36</v>
       </c>
-      <c r="C74" s="33">
+      <c r="C74" s="26">
         <v>89.9</v>
       </c>
-      <c r="D74" s="30">
-        <f>C74*$C$124</f>
+      <c r="D74" s="23">
+        <f t="shared" si="4"/>
         <v>8.99</v>
       </c>
-      <c r="E74" s="32">
+      <c r="E74" s="25">
         <v>3</v>
       </c>
-      <c r="F74" s="30">
-        <f>(C74-D74)*E74</f>
+      <c r="F74" s="23">
+        <f t="shared" si="5"/>
         <v>242.73000000000002</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="32">
+      <c r="B75" s="25">
         <v>35</v>
       </c>
-      <c r="C75" s="33">
+      <c r="C75" s="26">
         <v>89.9</v>
       </c>
-      <c r="D75" s="30">
-        <f>C75*$C$124</f>
+      <c r="D75" s="23">
+        <f t="shared" si="4"/>
         <v>8.99</v>
       </c>
-      <c r="E75" s="32">
+      <c r="E75" s="25">
         <v>16</v>
       </c>
-      <c r="F75" s="30">
-        <f>(C75-D75)*E75</f>
+      <c r="F75" s="23">
+        <f t="shared" si="5"/>
         <v>1294.5600000000002</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="31" t="s">
+      <c r="A76" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="32">
+      <c r="B76" s="25">
         <v>34</v>
       </c>
-      <c r="C76" s="33">
+      <c r="C76" s="26">
         <v>89.9</v>
       </c>
-      <c r="D76" s="30">
-        <f>C76*$C$124</f>
+      <c r="D76" s="23">
+        <f t="shared" si="4"/>
         <v>8.99</v>
       </c>
-      <c r="E76" s="32">
+      <c r="E76" s="25">
         <v>25</v>
       </c>
-      <c r="F76" s="30">
-        <f>(C76-D76)*E76</f>
+      <c r="F76" s="23">
+        <f t="shared" si="5"/>
         <v>2022.7500000000002</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="32">
+      <c r="B77" s="25">
         <v>33</v>
       </c>
-      <c r="C77" s="33">
+      <c r="C77" s="26">
         <v>89.9</v>
       </c>
-      <c r="D77" s="30">
-        <f>C77*$C$124</f>
+      <c r="D77" s="23">
+        <f t="shared" si="4"/>
         <v>8.99</v>
       </c>
-      <c r="E77" s="32">
+      <c r="E77" s="25">
         <v>4</v>
       </c>
-      <c r="F77" s="30">
-        <f>(C77-D77)*E77</f>
+      <c r="F77" s="23">
+        <f t="shared" si="5"/>
         <v>323.64000000000004</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B78" s="32">
+      <c r="B78" s="25">
         <v>32</v>
       </c>
-      <c r="C78" s="33">
+      <c r="C78" s="26">
         <v>89.9</v>
       </c>
-      <c r="D78" s="30">
-        <f>C78*$C$124</f>
+      <c r="D78" s="23">
+        <f t="shared" si="4"/>
         <v>8.99</v>
       </c>
-      <c r="E78" s="32">
+      <c r="E78" s="25">
         <v>8</v>
       </c>
-      <c r="F78" s="30">
-        <f>(C78-D78)*E78</f>
+      <c r="F78" s="23">
+        <f t="shared" si="5"/>
         <v>647.28000000000009</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="31" t="s">
+      <c r="A79" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="32">
+      <c r="B79" s="25">
         <v>31</v>
       </c>
-      <c r="C79" s="33">
+      <c r="C79" s="26">
         <v>89.9</v>
       </c>
-      <c r="D79" s="30">
-        <f>C79*$C$124</f>
+      <c r="D79" s="23">
+        <f t="shared" si="4"/>
         <v>8.99</v>
       </c>
-      <c r="E79" s="32">
+      <c r="E79" s="25">
         <v>23</v>
       </c>
-      <c r="F79" s="30">
-        <f>(C79-D79)*E79</f>
+      <c r="F79" s="23">
+        <f t="shared" si="5"/>
         <v>1860.9300000000003</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="31" t="s">
+      <c r="A80" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="32">
+      <c r="B80" s="25">
         <v>30</v>
       </c>
-      <c r="C80" s="33">
+      <c r="C80" s="26">
         <v>89.9</v>
       </c>
-      <c r="D80" s="30">
-        <f>C80*$C$124</f>
+      <c r="D80" s="23">
+        <f t="shared" si="4"/>
         <v>8.99</v>
       </c>
-      <c r="E80" s="32">
+      <c r="E80" s="25">
         <v>3</v>
       </c>
-      <c r="F80" s="30">
-        <f>(C80-D80)*E80</f>
+      <c r="F80" s="23">
+        <f t="shared" si="5"/>
         <v>242.73000000000002</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="31" t="s">
+      <c r="A81" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="32">
+      <c r="B81" s="25">
         <v>29</v>
       </c>
-      <c r="C81" s="33">
+      <c r="C81" s="26">
         <v>89.9</v>
       </c>
-      <c r="D81" s="30">
-        <f>C81*$C$124</f>
+      <c r="D81" s="23">
+        <f t="shared" si="4"/>
         <v>8.99</v>
       </c>
-      <c r="E81" s="32">
+      <c r="E81" s="25">
         <v>1</v>
       </c>
-      <c r="F81" s="30">
-        <f>(C81-D81)*E81</f>
+      <c r="F81" s="23">
+        <f t="shared" si="5"/>
         <v>80.910000000000011</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="31" t="s">
+      <c r="A82" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="32">
+      <c r="B82" s="25">
         <v>28</v>
       </c>
-      <c r="C82" s="33">
+      <c r="C82" s="26">
         <v>89.9</v>
       </c>
-      <c r="D82" s="30">
-        <f>C82*$C$124</f>
+      <c r="D82" s="23">
+        <f t="shared" si="4"/>
         <v>8.99</v>
       </c>
-      <c r="E82" s="32">
+      <c r="E82" s="25">
         <v>21</v>
       </c>
-      <c r="F82" s="30">
-        <f>(C82-D82)*E82</f>
+      <c r="F82" s="23">
+        <f t="shared" si="5"/>
         <v>1699.1100000000001</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B83" s="23">
+      <c r="B83" s="16">
         <v>27</v>
       </c>
-      <c r="C83" s="24">
+      <c r="C83" s="17">
         <v>79.8</v>
       </c>
-      <c r="D83" s="24">
-        <f>C83*$C$124</f>
+      <c r="D83" s="17">
+        <f t="shared" si="4"/>
         <v>7.98</v>
       </c>
-      <c r="E83" s="23">
+      <c r="E83" s="16">
         <v>15</v>
       </c>
-      <c r="F83" s="24">
-        <f>(C83-D83)*E83</f>
+      <c r="F83" s="17">
+        <f t="shared" si="5"/>
         <v>1077.3</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B84" s="23">
+      <c r="B84" s="16">
         <v>26</v>
       </c>
-      <c r="C84" s="24">
+      <c r="C84" s="17">
         <v>79.8</v>
       </c>
-      <c r="D84" s="24">
-        <f>C84*$C$124</f>
+      <c r="D84" s="17">
+        <f t="shared" si="4"/>
         <v>7.98</v>
       </c>
-      <c r="E84" s="23">
+      <c r="E84" s="16">
         <v>14</v>
       </c>
-      <c r="F84" s="24">
-        <f>(C84-D84)*E84</f>
+      <c r="F84" s="17">
+        <f t="shared" si="5"/>
         <v>1005.4799999999999</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B85" s="23">
+      <c r="B85" s="16">
         <v>25</v>
       </c>
-      <c r="C85" s="24">
+      <c r="C85" s="17">
         <v>79.8</v>
       </c>
-      <c r="D85" s="24">
-        <f>C85*$C$124</f>
+      <c r="D85" s="17">
+        <f t="shared" si="4"/>
         <v>7.98</v>
       </c>
-      <c r="E85" s="23">
+      <c r="E85" s="16">
         <v>16</v>
       </c>
-      <c r="F85" s="24">
-        <f>(C85-D85)*E85</f>
+      <c r="F85" s="17">
+        <f t="shared" si="5"/>
         <v>1149.1199999999999</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="23">
+      <c r="B86" s="16">
         <v>24</v>
       </c>
-      <c r="C86" s="24">
+      <c r="C86" s="17">
         <v>79.8</v>
       </c>
-      <c r="D86" s="24">
-        <f>C86*$C$124</f>
+      <c r="D86" s="17">
+        <f t="shared" si="4"/>
         <v>7.98</v>
       </c>
-      <c r="E86" s="23">
+      <c r="E86" s="16">
         <v>15</v>
       </c>
-      <c r="F86" s="24">
-        <f>(C86-D86)*E86</f>
+      <c r="F86" s="17">
+        <f t="shared" si="5"/>
         <v>1077.3</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B87" s="23">
+      <c r="B87" s="16">
         <v>23</v>
       </c>
-      <c r="C87" s="24">
+      <c r="C87" s="17">
         <v>79.8</v>
       </c>
-      <c r="D87" s="24">
-        <f>C87*$C$124</f>
+      <c r="D87" s="17">
+        <f t="shared" si="4"/>
         <v>7.98</v>
       </c>
-      <c r="E87" s="23">
+      <c r="E87" s="16">
         <v>16</v>
       </c>
-      <c r="F87" s="24">
-        <f>(C87-D87)*E87</f>
+      <c r="F87" s="17">
+        <f t="shared" si="5"/>
         <v>1149.1199999999999</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="22" t="s">
+      <c r="A88" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="23">
+      <c r="B88" s="16">
         <v>22</v>
       </c>
-      <c r="C88" s="24">
+      <c r="C88" s="17">
         <v>79.8</v>
       </c>
-      <c r="D88" s="24">
-        <f>C88*$C$124</f>
+      <c r="D88" s="17">
+        <f t="shared" si="4"/>
         <v>7.98</v>
       </c>
-      <c r="E88" s="23">
+      <c r="E88" s="16">
         <v>5</v>
       </c>
-      <c r="F88" s="24">
-        <f>(C88-D88)*E88</f>
+      <c r="F88" s="17">
+        <f t="shared" si="5"/>
         <v>359.09999999999997</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="23">
+      <c r="B89" s="16">
         <v>21</v>
       </c>
-      <c r="C89" s="24">
+      <c r="C89" s="17">
         <v>79.8</v>
       </c>
-      <c r="D89" s="24">
-        <f>C89*$C$124</f>
+      <c r="D89" s="17">
+        <f t="shared" si="4"/>
         <v>7.98</v>
       </c>
-      <c r="E89" s="23">
+      <c r="E89" s="16">
         <v>0</v>
       </c>
-      <c r="F89" s="24">
-        <f>(C89-D89)*E89</f>
+      <c r="F89" s="17">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B90" s="23">
+      <c r="B90" s="16">
         <v>20</v>
       </c>
-      <c r="C90" s="24">
+      <c r="C90" s="17">
         <v>79.8</v>
       </c>
-      <c r="D90" s="24">
-        <f>C90*$C$124</f>
+      <c r="D90" s="17">
+        <f t="shared" si="4"/>
         <v>7.98</v>
       </c>
-      <c r="E90" s="23">
+      <c r="E90" s="16">
         <v>1</v>
       </c>
-      <c r="F90" s="24">
-        <f>(C90-D90)*E90</f>
+      <c r="F90" s="17">
+        <f t="shared" si="5"/>
         <v>71.819999999999993</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="23">
+      <c r="B91" s="16">
         <v>19</v>
       </c>
-      <c r="C91" s="24">
+      <c r="C91" s="17">
         <v>79.8</v>
       </c>
-      <c r="D91" s="24">
-        <f>C91*$C$124</f>
+      <c r="D91" s="17">
+        <f t="shared" si="4"/>
         <v>7.98</v>
       </c>
-      <c r="E91" s="23">
+      <c r="E91" s="16">
         <v>3</v>
       </c>
-      <c r="F91" s="24">
-        <f>(C91-D91)*E91</f>
+      <c r="F91" s="17">
+        <f t="shared" si="5"/>
         <v>215.45999999999998</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B92" s="23">
+      <c r="B92" s="16">
         <v>18</v>
       </c>
-      <c r="C92" s="24">
+      <c r="C92" s="17">
         <v>79.8</v>
       </c>
-      <c r="D92" s="24">
-        <f>C92*$C$124</f>
+      <c r="D92" s="17">
+        <f t="shared" si="4"/>
         <v>7.98</v>
       </c>
-      <c r="E92" s="23">
+      <c r="E92" s="16">
         <v>2</v>
       </c>
-      <c r="F92" s="24">
-        <f>(C92-D92)*E92</f>
+      <c r="F92" s="17">
+        <f t="shared" si="5"/>
         <v>143.63999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B93" s="23">
+      <c r="B93" s="16">
         <v>17</v>
       </c>
-      <c r="C93" s="24">
+      <c r="C93" s="17">
         <v>79.8</v>
       </c>
-      <c r="D93" s="24">
-        <f>C93*$C$124</f>
+      <c r="D93" s="17">
+        <f t="shared" si="4"/>
         <v>7.98</v>
       </c>
-      <c r="E93" s="23">
+      <c r="E93" s="16">
         <v>25</v>
       </c>
-      <c r="F93" s="24">
-        <f>(C93-D93)*E93</f>
+      <c r="F93" s="17">
+        <f t="shared" si="5"/>
         <v>1795.4999999999998</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="25" t="s">
+      <c r="A94" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B94" s="26">
+      <c r="B94" s="19">
         <v>36</v>
       </c>
-      <c r="C94" s="27">
+      <c r="C94" s="20">
         <v>83.3</v>
       </c>
-      <c r="D94" s="24">
-        <f>C94*$C$124</f>
+      <c r="D94" s="17">
+        <f t="shared" si="4"/>
         <v>8.33</v>
       </c>
-      <c r="E94" s="26">
+      <c r="E94" s="19">
         <v>36</v>
       </c>
-      <c r="F94" s="24">
-        <f>(C94-D94)*E94</f>
+      <c r="F94" s="17">
+        <f t="shared" si="5"/>
         <v>2698.92</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="26">
+      <c r="B95" s="19">
         <v>35</v>
       </c>
-      <c r="C95" s="27">
+      <c r="C95" s="20">
         <v>83.3</v>
       </c>
-      <c r="D95" s="24">
-        <f>C95*$C$124</f>
+      <c r="D95" s="17">
+        <f t="shared" si="4"/>
         <v>8.33</v>
       </c>
-      <c r="E95" s="26">
+      <c r="E95" s="19">
         <v>2</v>
       </c>
-      <c r="F95" s="24">
-        <f>(C95-D95)*E95</f>
+      <c r="F95" s="17">
+        <f t="shared" si="5"/>
         <v>149.94</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="25" t="s">
+      <c r="A96" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B96" s="26">
+      <c r="B96" s="19">
         <v>34</v>
       </c>
-      <c r="C96" s="27">
+      <c r="C96" s="20">
         <v>83.3</v>
       </c>
-      <c r="D96" s="24">
-        <f>C96*$C$124</f>
+      <c r="D96" s="17">
+        <f t="shared" si="4"/>
         <v>8.33</v>
       </c>
-      <c r="E96" s="26">
+      <c r="E96" s="19">
         <v>16</v>
       </c>
-      <c r="F96" s="24">
-        <f>(C96-D96)*E96</f>
+      <c r="F96" s="17">
+        <f t="shared" si="5"/>
         <v>1199.52</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B97" s="26">
+      <c r="B97" s="19">
         <v>33</v>
       </c>
-      <c r="C97" s="27">
+      <c r="C97" s="20">
         <v>83.3</v>
       </c>
-      <c r="D97" s="24">
-        <f>C97*$C$124</f>
+      <c r="D97" s="17">
+        <f t="shared" si="4"/>
         <v>8.33</v>
       </c>
-      <c r="E97" s="26">
+      <c r="E97" s="19">
         <v>15</v>
       </c>
-      <c r="F97" s="24">
-        <f>(C97-D97)*E97</f>
+      <c r="F97" s="17">
+        <f t="shared" si="5"/>
         <v>1124.55</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="25" t="s">
+      <c r="A98" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="26">
+      <c r="B98" s="19">
         <v>32</v>
       </c>
-      <c r="C98" s="27">
+      <c r="C98" s="20">
         <v>83.3</v>
       </c>
-      <c r="D98" s="24">
-        <f>C98*$C$124</f>
+      <c r="D98" s="17">
+        <f t="shared" si="4"/>
         <v>8.33</v>
       </c>
-      <c r="E98" s="26">
+      <c r="E98" s="19">
         <v>5</v>
       </c>
-      <c r="F98" s="24">
-        <f>(C98-D98)*E98</f>
+      <c r="F98" s="17">
+        <f t="shared" si="5"/>
         <v>374.85</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="25" t="s">
+      <c r="A99" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B99" s="26">
+      <c r="B99" s="19">
         <v>31</v>
       </c>
-      <c r="C99" s="27">
+      <c r="C99" s="20">
         <v>83.3</v>
       </c>
-      <c r="D99" s="24">
-        <f>C99*$C$124</f>
+      <c r="D99" s="17">
+        <f t="shared" ref="D99:D130" si="6">C99*$C$124</f>
         <v>8.33</v>
       </c>
-      <c r="E99" s="26">
+      <c r="E99" s="19">
         <v>4</v>
       </c>
-      <c r="F99" s="24">
-        <f>(C99-D99)*E99</f>
+      <c r="F99" s="17">
+        <f t="shared" ref="F99:F130" si="7">(C99-D99)*E99</f>
         <v>299.88</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="25" t="s">
+      <c r="A100" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="26">
+      <c r="B100" s="19">
         <v>30</v>
       </c>
-      <c r="C100" s="27">
+      <c r="C100" s="20">
         <v>83.3</v>
       </c>
-      <c r="D100" s="24">
-        <f>C100*$C$124</f>
+      <c r="D100" s="17">
+        <f t="shared" si="6"/>
         <v>8.33</v>
       </c>
-      <c r="E100" s="26">
+      <c r="E100" s="19">
         <v>0</v>
       </c>
-      <c r="F100" s="24">
-        <f>(C100-D100)*E100</f>
+      <c r="F100" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="25" t="s">
+      <c r="A101" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B101" s="26">
+      <c r="B101" s="19">
         <v>29</v>
       </c>
-      <c r="C101" s="27">
+      <c r="C101" s="20">
         <v>83.3</v>
       </c>
-      <c r="D101" s="24">
-        <f>C101*$C$124</f>
+      <c r="D101" s="17">
+        <f t="shared" si="6"/>
         <v>8.33</v>
       </c>
-      <c r="E101" s="26">
+      <c r="E101" s="19">
         <v>5</v>
       </c>
-      <c r="F101" s="24">
-        <f>(C101-D101)*E101</f>
+      <c r="F101" s="17">
+        <f t="shared" si="7"/>
         <v>374.85</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="25" t="s">
+      <c r="A102" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B102" s="26">
+      <c r="B102" s="19">
         <v>28</v>
       </c>
-      <c r="C102" s="27">
+      <c r="C102" s="20">
         <v>83.3</v>
       </c>
-      <c r="D102" s="24">
-        <f>C102*$C$124</f>
+      <c r="D102" s="17">
+        <f t="shared" si="6"/>
         <v>8.33</v>
       </c>
-      <c r="E102" s="26">
+      <c r="E102" s="19">
         <v>29</v>
       </c>
-      <c r="F102" s="24">
-        <f>(C102-D102)*E102</f>
+      <c r="F102" s="17">
+        <f t="shared" si="7"/>
         <v>2174.13</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B103" s="23">
+      <c r="B103" s="16">
         <v>27</v>
       </c>
-      <c r="C103" s="24">
+      <c r="C103" s="17">
         <v>85.5</v>
       </c>
-      <c r="D103" s="24">
-        <f>C103*$C$124</f>
+      <c r="D103" s="17">
+        <f t="shared" si="6"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E103" s="23">
+      <c r="E103" s="16">
         <v>23</v>
       </c>
-      <c r="F103" s="24">
-        <f>(C103-D103)*E103</f>
+      <c r="F103" s="17">
+        <f t="shared" si="7"/>
         <v>1769.8500000000001</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="22" t="s">
+      <c r="A104" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B104" s="23">
+      <c r="B104" s="16">
         <v>26</v>
       </c>
-      <c r="C104" s="24">
+      <c r="C104" s="17">
         <v>85.5</v>
       </c>
-      <c r="D104" s="24">
-        <f>C104*$C$124</f>
+      <c r="D104" s="17">
+        <f t="shared" si="6"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E104" s="23">
+      <c r="E104" s="16">
         <v>26</v>
       </c>
-      <c r="F104" s="24">
-        <f>(C104-D104)*E104</f>
+      <c r="F104" s="17">
+        <f t="shared" si="7"/>
         <v>2000.7</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="22" t="s">
+      <c r="A105" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B105" s="23">
+      <c r="B105" s="16">
         <v>25</v>
       </c>
-      <c r="C105" s="24">
+      <c r="C105" s="17">
         <v>85.5</v>
       </c>
-      <c r="D105" s="24">
-        <f>C105*$C$124</f>
+      <c r="D105" s="17">
+        <f t="shared" si="6"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E105" s="23">
+      <c r="E105" s="16">
         <v>2</v>
       </c>
-      <c r="F105" s="24">
-        <f>(C105-D105)*E105</f>
+      <c r="F105" s="17">
+        <f t="shared" si="7"/>
         <v>153.9</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="22" t="s">
+      <c r="A106" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B106" s="23">
+      <c r="B106" s="16">
         <v>24</v>
       </c>
-      <c r="C106" s="24">
+      <c r="C106" s="17">
         <v>85.5</v>
       </c>
-      <c r="D106" s="24">
-        <f>C106*$C$124</f>
+      <c r="D106" s="17">
+        <f t="shared" si="6"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E106" s="23">
+      <c r="E106" s="16">
         <v>25</v>
       </c>
-      <c r="F106" s="24">
-        <f>(C106-D106)*E106</f>
+      <c r="F106" s="17">
+        <f t="shared" si="7"/>
         <v>1923.75</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="22" t="s">
+      <c r="A107" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B107" s="23">
+      <c r="B107" s="16">
         <v>23</v>
       </c>
-      <c r="C107" s="24">
+      <c r="C107" s="17">
         <v>85.5</v>
       </c>
-      <c r="D107" s="24">
-        <f>C107*$C$124</f>
+      <c r="D107" s="17">
+        <f t="shared" si="6"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E107" s="23">
+      <c r="E107" s="16">
         <v>2</v>
       </c>
-      <c r="F107" s="24">
-        <f>(C107-D107)*E107</f>
+      <c r="F107" s="17">
+        <f t="shared" si="7"/>
         <v>153.9</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="22" t="s">
+      <c r="A108" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B108" s="23">
+      <c r="B108" s="16">
         <v>22</v>
       </c>
-      <c r="C108" s="24">
+      <c r="C108" s="17">
         <v>85.5</v>
       </c>
-      <c r="D108" s="24">
-        <f>C108*$C$124</f>
+      <c r="D108" s="17">
+        <f t="shared" si="6"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E108" s="23">
+      <c r="E108" s="16">
         <v>8</v>
       </c>
-      <c r="F108" s="24">
-        <f>(C108-D108)*E108</f>
+      <c r="F108" s="17">
+        <f t="shared" si="7"/>
         <v>615.6</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="22" t="s">
+      <c r="A109" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B109" s="23">
+      <c r="B109" s="16">
         <v>21</v>
       </c>
-      <c r="C109" s="24">
+      <c r="C109" s="17">
         <v>85.5</v>
       </c>
-      <c r="D109" s="24">
-        <f>C109*$C$124</f>
+      <c r="D109" s="17">
+        <f t="shared" si="6"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E109" s="23">
+      <c r="E109" s="16">
         <v>5</v>
       </c>
-      <c r="F109" s="24">
-        <f>(C109-D109)*E109</f>
+      <c r="F109" s="17">
+        <f t="shared" si="7"/>
         <v>384.75</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="22" t="s">
+      <c r="A110" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B110" s="23">
+      <c r="B110" s="16">
         <v>20</v>
       </c>
-      <c r="C110" s="24">
+      <c r="C110" s="17">
         <v>85.5</v>
       </c>
-      <c r="D110" s="24">
-        <f>C110*$C$124</f>
+      <c r="D110" s="17">
+        <f t="shared" si="6"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E110" s="23">
+      <c r="E110" s="16">
         <v>16</v>
       </c>
-      <c r="F110" s="24">
-        <f>(C110-D110)*E110</f>
+      <c r="F110" s="17">
+        <f t="shared" si="7"/>
         <v>1231.2</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="22" t="s">
+      <c r="A111" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B111" s="23">
+      <c r="B111" s="16">
         <v>19</v>
       </c>
-      <c r="C111" s="24">
+      <c r="C111" s="17">
         <v>85.5</v>
       </c>
-      <c r="D111" s="24">
-        <f>C111*$C$124</f>
+      <c r="D111" s="17">
+        <f t="shared" si="6"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E111" s="23">
+      <c r="E111" s="16">
         <v>8</v>
       </c>
-      <c r="F111" s="24">
-        <f>(C111-D111)*E111</f>
+      <c r="F111" s="17">
+        <f t="shared" si="7"/>
         <v>615.6</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="22" t="s">
+      <c r="A112" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="23">
+      <c r="B112" s="16">
         <v>18</v>
       </c>
-      <c r="C112" s="24">
+      <c r="C112" s="17">
         <v>85.5</v>
       </c>
-      <c r="D112" s="24">
-        <f>C112*$C$124</f>
+      <c r="D112" s="17">
+        <f t="shared" si="6"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E112" s="23">
+      <c r="E112" s="16">
         <v>3</v>
       </c>
-      <c r="F112" s="24">
-        <f>(C112-D112)*E112</f>
+      <c r="F112" s="17">
+        <f t="shared" si="7"/>
         <v>230.85000000000002</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="22" t="s">
+      <c r="A113" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B113" s="23">
+      <c r="B113" s="16">
         <v>17</v>
       </c>
-      <c r="C113" s="24">
+      <c r="C113" s="17">
         <v>85.5</v>
       </c>
-      <c r="D113" s="24">
-        <f>C113*$C$124</f>
+      <c r="D113" s="17">
+        <f t="shared" si="6"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E113" s="23">
+      <c r="E113" s="16">
         <v>0</v>
       </c>
-      <c r="F113" s="24">
-        <f>(C113-D113)*E113</f>
+      <c r="F113" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="25" t="s">
+      <c r="A114" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="26">
+      <c r="B114" s="19">
         <v>36</v>
       </c>
-      <c r="C114" s="27">
+      <c r="C114" s="20">
         <v>89.9</v>
       </c>
-      <c r="D114" s="24">
-        <f>C114*$C$124</f>
+      <c r="D114" s="17">
+        <f t="shared" si="6"/>
         <v>8.99</v>
       </c>
-      <c r="E114" s="26">
+      <c r="E114" s="19">
         <v>3</v>
       </c>
-      <c r="F114" s="24">
-        <f>(C114-D114)*E114</f>
+      <c r="F114" s="17">
+        <f t="shared" si="7"/>
         <v>242.73000000000002</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="25" t="s">
+      <c r="A115" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B115" s="26">
+      <c r="B115" s="19">
         <v>35</v>
       </c>
-      <c r="C115" s="27">
+      <c r="C115" s="20">
         <v>89.9</v>
       </c>
-      <c r="D115" s="24">
-        <f>C115*$C$124</f>
+      <c r="D115" s="17">
+        <f t="shared" si="6"/>
         <v>8.99</v>
       </c>
-      <c r="E115" s="26">
+      <c r="E115" s="19">
         <v>21</v>
       </c>
-      <c r="F115" s="24">
-        <f>(C115-D115)*E115</f>
+      <c r="F115" s="17">
+        <f t="shared" si="7"/>
         <v>1699.1100000000001</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="25" t="s">
+      <c r="A116" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="26">
+      <c r="B116" s="19">
         <v>34</v>
       </c>
-      <c r="C116" s="27">
+      <c r="C116" s="20">
         <v>89.9</v>
       </c>
-      <c r="D116" s="24">
-        <f>C116*$C$124</f>
+      <c r="D116" s="17">
+        <f t="shared" si="6"/>
         <v>8.99</v>
       </c>
-      <c r="E116" s="26">
+      <c r="E116" s="19">
         <v>4</v>
       </c>
-      <c r="F116" s="24">
-        <f>(C116-D116)*E116</f>
+      <c r="F116" s="17">
+        <f t="shared" si="7"/>
         <v>323.64000000000004</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="25" t="s">
+      <c r="A117" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B117" s="26">
+      <c r="B117" s="19">
         <v>33</v>
       </c>
-      <c r="C117" s="27">
+      <c r="C117" s="20">
         <v>89.9</v>
       </c>
-      <c r="D117" s="24">
-        <f>C117*$C$124</f>
+      <c r="D117" s="17">
+        <f t="shared" si="6"/>
         <v>8.99</v>
       </c>
-      <c r="E117" s="26">
+      <c r="E117" s="19">
         <v>6</v>
       </c>
-      <c r="F117" s="24">
-        <f>(C117-D117)*E117</f>
+      <c r="F117" s="17">
+        <f t="shared" si="7"/>
         <v>485.46000000000004</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="25" t="s">
+      <c r="A118" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B118" s="26">
+      <c r="B118" s="19">
         <v>32</v>
       </c>
-      <c r="C118" s="27">
+      <c r="C118" s="20">
         <v>89.9</v>
       </c>
-      <c r="D118" s="24">
-        <f>C118*$C$124</f>
+      <c r="D118" s="17">
+        <f t="shared" si="6"/>
         <v>8.99</v>
       </c>
-      <c r="E118" s="26">
+      <c r="E118" s="19">
         <v>3</v>
       </c>
-      <c r="F118" s="24">
-        <f>(C118-D118)*E118</f>
+      <c r="F118" s="17">
+        <f t="shared" si="7"/>
         <v>242.73000000000002</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="25" t="s">
+      <c r="A119" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B119" s="26">
+      <c r="B119" s="19">
         <v>31</v>
       </c>
-      <c r="C119" s="27">
+      <c r="C119" s="20">
         <v>89.9</v>
       </c>
-      <c r="D119" s="24">
-        <f>C119*$C$124</f>
+      <c r="D119" s="17">
+        <f t="shared" si="6"/>
         <v>8.99</v>
       </c>
-      <c r="E119" s="26">
+      <c r="E119" s="19">
         <v>8</v>
       </c>
-      <c r="F119" s="24">
-        <f>(C119-D119)*E119</f>
+      <c r="F119" s="17">
+        <f t="shared" si="7"/>
         <v>647.28000000000009</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="25" t="s">
+      <c r="A120" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B120" s="26">
+      <c r="B120" s="19">
         <v>30</v>
       </c>
-      <c r="C120" s="27">
+      <c r="C120" s="20">
         <v>89.9</v>
       </c>
-      <c r="D120" s="24">
-        <f>C120*$C$124</f>
+      <c r="D120" s="17">
+        <f t="shared" si="6"/>
         <v>8.99</v>
       </c>
-      <c r="E120" s="26">
+      <c r="E120" s="19">
         <v>25</v>
       </c>
-      <c r="F120" s="24">
-        <f>(C120-D120)*E120</f>
+      <c r="F120" s="17">
+        <f t="shared" si="7"/>
         <v>2022.7500000000002</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="25" t="s">
+      <c r="A121" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B121" s="26">
+      <c r="B121" s="19">
         <v>29</v>
       </c>
-      <c r="C121" s="27">
+      <c r="C121" s="20">
         <v>89.9</v>
       </c>
-      <c r="D121" s="24">
-        <f>C121*$C$124</f>
+      <c r="D121" s="17">
+        <f t="shared" si="6"/>
         <v>8.99</v>
       </c>
-      <c r="E121" s="26">
+      <c r="E121" s="19">
         <v>0</v>
       </c>
-      <c r="F121" s="24">
-        <f>(C121-D121)*E121</f>
+      <c r="F121" s="17">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="25" t="s">
+      <c r="A122" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B122" s="26">
+      <c r="B122" s="19">
         <v>28</v>
       </c>
-      <c r="C122" s="27">
+      <c r="C122" s="20">
         <v>89.9</v>
       </c>
-      <c r="D122" s="24">
-        <f>C122*$C$124</f>
+      <c r="D122" s="17">
+        <f t="shared" si="6"/>
         <v>8.99</v>
       </c>
-      <c r="E122" s="26">
+      <c r="E122" s="19">
         <v>5</v>
       </c>
-      <c r="F122" s="24">
-        <f>(C122-D122)*E122</f>
+      <c r="F122" s="17">
+        <f t="shared" si="7"/>
         <v>404.55000000000007</v>
       </c>
     </row>
@@ -8435,17 +8372,18 @@
       <c r="B124" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C124" s="12">
+      <c r="C124" s="30">
         <v>0.1</v>
       </c>
-      <c r="D124" s="13"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="15"/>
+      <c r="D124" s="31"/>
+      <c r="E124" s="32"/>
+      <c r="F124" s="33"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:F124" xr:uid="{3CABC66B-F9D6-46F7-A89B-26F152C71AB5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F122">
-    <sortCondition sortBy="fontColor" ref="A3:A122" dxfId="3"/>
-    <sortCondition descending="1" sortBy="fontColor" ref="A3:A122" dxfId="2"/>
+    <sortCondition sortBy="fontColor" ref="A3:A122" dxfId="1"/>
+    <sortCondition descending="1" sortBy="fontColor" ref="A3:A122" dxfId="0"/>
     <sortCondition ref="C3:C122"/>
   </sortState>
   <mergeCells count="2">
@@ -8457,6 +8395,126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28BE986-C7C8-44A0-B8C7-884F79E59F0B}">
+  <dimension ref="A2:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="16">
+        <v>22</v>
+      </c>
+      <c r="C8" s="17">
+        <v>85.5</v>
+      </c>
+      <c r="D8" s="17">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="E8" s="16">
+        <v>8</v>
+      </c>
+      <c r="F8" s="17">
+        <v>615.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="16">
+        <v>19</v>
+      </c>
+      <c r="C9" s="17">
+        <v>85.5</v>
+      </c>
+      <c r="D9" s="17">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="E9" s="16">
+        <v>8</v>
+      </c>
+      <c r="F9" s="17">
+        <v>615.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19">
+        <v>31</v>
+      </c>
+      <c r="C10" s="20">
+        <v>89.9</v>
+      </c>
+      <c r="D10" s="17">
+        <v>8.99</v>
+      </c>
+      <c r="E10" s="19">
+        <v>8</v>
+      </c>
+      <c r="F10" s="17">
+        <v>647.28000000000009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49322E16-DEEA-456D-9CAD-DFD8833691C2}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>

--- a/02-curso-funcoes-com-excel-operacoes-matematicas-e-filtros/material-inicial.xlsx
+++ b/02-curso-funcoes-com-excel-operacoes-matematicas-e-filtros/material-inicial.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anne Karoline\workspace 2022\00-Projetos-2022\aprendendo-excel\02-curso-funcoes-com-excel-operacoes-matematicas-e-filtros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94DF099-CEAB-439A-A036-4AF905463041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE46E30-1691-4E82-B7CA-C811FE084FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C1B61AA5-C757-4C13-B5B2-E36863709022}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos Infantis" sheetId="1" r:id="rId1"/>
-    <sheet name="Dados Filtrados" sheetId="8" r:id="rId2"/>
-    <sheet name="Gráficos" sheetId="7" r:id="rId3"/>
+    <sheet name="Meus Números" sheetId="9" r:id="rId2"/>
+    <sheet name="Dados Filtrados" sheetId="8" r:id="rId3"/>
+    <sheet name="Gráficos" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Produtos Infantis'!$A$2:$F$124</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="1">'Dados Filtrados'!$A$7:$F$7</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">'Dados Filtrados'!$A$2:$B$3</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">'Dados Filtrados'!$A$7:$F$7</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">'Dados Filtrados'!$A$2:$B$3</definedName>
+    <definedName name="descricao">'Produtos Infantis'!$A$3:$A$122</definedName>
+    <definedName name="quantidades">'Produtos Infantis'!$E$3:$E$122</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="25">
   <si>
     <t>Tamanho</t>
   </si>
@@ -90,6 +93,33 @@
   </si>
   <si>
     <t>*Vermelho*</t>
+  </si>
+  <si>
+    <t>Tipos de Tênis Disponíveis</t>
+  </si>
+  <si>
+    <t>Meus Números</t>
+  </si>
+  <si>
+    <t>Total de Pares em Estoque</t>
+  </si>
+  <si>
+    <t>Tênis Infantil *</t>
+  </si>
+  <si>
+    <t>Tênis Infantil Nika *</t>
+  </si>
+  <si>
+    <t>Quantidade em Estoque (Tênis Infantil Nika *)</t>
+  </si>
+  <si>
+    <t>Quantidade em Estoque (Tênis Infantil *)</t>
+  </si>
+  <si>
+    <t>Tênis Infantil * Vermelho</t>
+  </si>
+  <si>
+    <t>Quantidade em Estoque (Tênis Infantil * vermelho)</t>
   </si>
 </sst>
 </file>
@@ -191,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -338,12 +368,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -443,6 +488,15 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5665,8 +5719,8 @@
   <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="2" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7831,14 +7885,14 @@
         <v>83.3</v>
       </c>
       <c r="D99" s="17">
-        <f t="shared" ref="D99:D130" si="6">C99*$C$124</f>
+        <f t="shared" ref="D99:D122" si="6">C99*$C$124</f>
         <v>8.33</v>
       </c>
       <c r="E99" s="19">
         <v>4</v>
       </c>
       <c r="F99" s="17">
-        <f t="shared" ref="F99:F130" si="7">(C99-D99)*E99</f>
+        <f t="shared" ref="F99:F122" si="7">(C99-D99)*E99</f>
         <v>299.88</v>
       </c>
     </row>
@@ -8395,10 +8449,135 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B8644C-31C9-4C75-85FC-D0A2D64ED938}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="35"/>
+    </row>
+    <row r="2" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="36">
+        <f>COUNTIF('Produtos Infantis'!E3:E122,"&gt;0")</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="36">
+        <f>SUM('Produtos Infantis'!E3:E122)</f>
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="36"/>
+    </row>
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="36">
+        <f>COUNTIF(descricao,A5)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="36">
+        <f>COUNTIF(descricao,A6)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="36">
+        <f>COUNTIF(descricao,A7)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="36">
+        <f>COUNTIF(descricao,A8)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="36"/>
+    </row>
+    <row r="10" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="36">
+        <f>SUMIF(descricao,A7,quantidades)</f>
+        <v>666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="36">
+        <f>SUMIF(descricao,A6,quantidades)</f>
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="36">
+        <f>SUMIF(descricao,A8,quantidades)</f>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="36"/>
+    </row>
+    <row r="14" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28BE986-C7C8-44A0-B8C7-884F79E59F0B}">
   <dimension ref="A2:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -8514,7 +8693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49322E16-DEEA-456D-9CAD-DFD8833691C2}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>

--- a/02-curso-funcoes-com-excel-operacoes-matematicas-e-filtros/material-inicial.xlsx
+++ b/02-curso-funcoes-com-excel-operacoes-matematicas-e-filtros/material-inicial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anne Karoline\workspace 2022\00-Projetos-2022\aprendendo-excel\02-curso-funcoes-com-excel-operacoes-matematicas-e-filtros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE46E30-1691-4E82-B7CA-C811FE084FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302F9B1F-966F-43E4-962E-D0A57DB7E054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C1B61AA5-C757-4C13-B5B2-E36863709022}"/>
   </bookViews>
@@ -21,6 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Produtos Infantis'!$A$2:$F$124</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">'Dados Filtrados'!$A$7:$F$7</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">'Meus Números'!$E$1</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">'Dados Filtrados'!$A$2:$B$3</definedName>
     <definedName name="descricao">'Produtos Infantis'!$A$3:$A$122</definedName>
     <definedName name="quantidades">'Produtos Infantis'!$E$3:$E$122</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="25">
   <si>
     <t>Tamanho</t>
   </si>
@@ -221,7 +222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -383,12 +384,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -468,6 +493,9 @@
     <xf numFmtId="164" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,9 +523,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -5733,14 +5760,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -8426,12 +8453,12 @@
       <c r="B124" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C124" s="30">
+      <c r="C124" s="31">
         <v>0.1</v>
       </c>
-      <c r="D124" s="31"/>
-      <c r="E124" s="32"/>
-      <c r="F124" s="33"/>
+      <c r="D124" s="32"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="34"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:F124" xr:uid="{3CABC66B-F9D6-46F7-A89B-26F152C71AB5}"/>
@@ -8450,125 +8477,161 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B8644C-31C9-4C75-85FC-D0A2D64ED938}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="35"/>
-    </row>
-    <row r="2" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="36"/>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="27">
         <f>COUNTIF('Produtos Infantis'!E3:E122,"&gt;0")</f>
         <v>107</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="27">
         <f>SUM('Produtos Infantis'!E3:E122)</f>
         <v>1273</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
-      <c r="B4" s="36"/>
-    </row>
-    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="27"/>
+      <c r="E4" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="27">
         <f>COUNTIF(descricao,A5)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="27">
+        <f>COUNTIF(descricao,A6)</f>
+        <v>20</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="36">
-        <f>COUNTIF(descricao,A6)</f>
+      <c r="B7" s="27">
+        <f>COUNTIF(descricao,A7)</f>
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="E7" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="36">
-        <f>COUNTIF(descricao,A7)</f>
+      <c r="B8" s="27">
+        <f>COUNTIF(descricao,A8)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="36">
-        <f>COUNTIF(descricao,A8)</f>
+      <c r="B9" s="27">
+        <f>COUNTIF(descricao,A9)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="36"/>
-    </row>
-    <row r="10" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="27"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B11" s="27">
+        <f>SUMIF(descricao,A8,quantidades)</f>
+        <v>666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="27">
         <f>SUMIF(descricao,A7,quantidades)</f>
-        <v>666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="36">
-        <f>SUMIF(descricao,A6,quantidades)</f>
         <v>1273</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="36">
-        <f>SUMIF(descricao,A8,quantidades)</f>
+      <c r="B13" s="27">
+        <f>SUMIF(descricao,A9,quantidades)</f>
         <v>417</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="36"/>
-    </row>
-    <row r="14" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
-      <c r="B14" s="36"/>
+      <c r="B14" s="27"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Problema" error="Você precisa digitar pelo menos 17 caracteres para fazer a sua consulta." promptTitle="Aviso de Digitação" prompt="Ao digitar, use pelo menos 17 letras, assim: TÊNIS INFANTIL X" sqref="A6" xr:uid="{865DA180-FFC1-44B2-B750-C8FC86FC3D5C}">
+      <formula1>$E$2:$E$7</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
